--- a/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Sarthe/Liste_des_villes_et_villages_fleuris_de_la_Sarthe.xlsx
+++ b/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Sarthe/Liste_des_villes_et_villages_fleuris_de_la_Sarthe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des villes et villages fleuris de la Sarthe dresse le nom des communes récompensées par le concours des villes et villages fleuris dans le département de la Sarthe, en Pays de la Loire.
-En 2022, 57 communes du département figurent au palmarès du concours[1], soit le même nombre de communes par rapport aux résultats de 2021.
+En 2022, 57 communes du département figurent au palmarès du concours, soit le même nombre de communes par rapport aux résultats de 2021.
 </t>
         </is>
       </c>
@@ -512,21 +524,172 @@
           <t>Communes labellisées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indication de hausse, de baisse ou de stagnation, pour la catégorie 4 fleurs, correspond au précédent résultat (année 2022 par rapport à 2021). Les autres catégories (3, 2 et 1 fleur) n'ont pas d'indications car leurs différents résultats ne reflètent pas obligatoirement une signification positive ou négative.
-Répartition selon le nombre de fleurs
-Les 57 communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Sarthe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Sarthe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Répartition selon le nombre de fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les 57 communes sont réparties comme suit :
 4 fleurs : 2 communes. 
 3 fleurs : 14 communes.
 2 fleurs : 21 communes.
-1 fleur : 20 communes.
-Liste des communes
-La liste suivante répertorie les communes de la Sarthe labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2022 sont identifiées en caractères gras) :
-4 fleurs
+1 fleur : 20 communes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Sarthe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Sarthe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste suivante répertorie les communes de la Sarthe labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2022 sont identifiées en caractères gras) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Sarthe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Sarthe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4 fleurs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cogners
 Coulaines
-3 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Sarthe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Sarthe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3 fleurs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Auvers-le-Hamon
 Beaufay
 Bessé-sur-Braye
@@ -541,7 +704,47 @@
 Savigné-l'Évêque
 Sougé-le-Ganelon
 Teloché
-2 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Sarthe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Sarthe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2 fleurs</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Allonnes
 Arnage
 Asnières-sur-Vègre
@@ -563,7 +766,47 @@
 Tassé
 Vibraye
 Yvré-le-Pôlin
-1 fleur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Sarthe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Sarthe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1 fleur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bazouges Cré sur Loir
 Conlie
 Crannes-en-Champagne
@@ -588,34 +831,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Liste_des_villes_et_villages_fleuris_de_la_Sarthe</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Sarthe</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fleurs d'Or
-Coulaines (2021)[2],[3]</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fleurs d'Or</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Coulaines (2021),</t>
         </is>
       </c>
     </row>
